--- a/medicine/Psychotrope/Negroamaro/Negroamaro.xlsx
+++ b/medicine/Psychotrope/Negroamaro/Negroamaro.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le negroamaro  est un cépage italien de raisins noirs.
@@ -512,7 +524,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom contient la répétition du mot noir en deux langues: niger en latin et maru en grec ancien, mais il se peut aussi qu'il dérive de l'expression dialectale Niuru Maru, noir amer, faisant référence à la couleur noire de la peau et au goût amer du vin.
 </t>
@@ -543,7 +557,9 @@
           <t>Origine et répartition géographique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce cépage provient du sud de l’Italie, et plus particulièrement de la région des Pouilles. 
 Sa culture remonte à l'époque de la colonisation grecque VIIe siècle av. J.-C.
@@ -577,7 +593,9 @@
           <t>Caractères ampélographiques</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Extrémité du jeune rameau cotonneux, jaune blanchâtre avec un liseré rosé.
 Jeunes feuilles duveteuses.
@@ -609,7 +627,9 @@
           <t>Aptitudes culturales</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">La maturité est de troisième époque tardive: 35  jours après le chasselas.
 </t>
@@ -640,7 +660,9 @@
           <t>Potentiel technologique</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Les grappes et les baies sont de taille moyenne à grande. La grappe est conique et compacte (poids +/- 300 - 350 g). Les vins sont souvent vinifiés en mélange avec le malvasia nera di Brindisi, le sangiovese et le montepulciano. Vinifié seul, le negroamaro donne un vin de couleur rouge grenat et qualité moyenne.
 </t>
@@ -671,7 +693,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Le negroamaro est connu sous le nom de abbruzzese, albese, arbese, arrise, jonico, lacrimo (erroné), mangiaverme, negro amaro, nero amaro, nero leccese, nicra amaro, niuru maru, negramaro et uva cane
 </t>
